--- a/biology/Botanique/Polygala_rupestris/Polygala_rupestris.xlsx
+++ b/biology/Botanique/Polygala_rupestris/Polygala_rupestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polygala rupestris est une espèce de plantes de la famille des Polygalaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polygala rupestris est une espèce de plantes de la famille des Polygalaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polygala rupestris est un petit arbrisseau possédant des tiges ligneuses à la base. Elles sont ramifiées, plus ou moins imbriquées ou décombantes, très glabres et mesurent 6  à   20 cm. Les feuilles épaisses, ovales, glabres, mesurent 10  à   15 mm. À l'aisselle des feuilles supérieures de la tige sont insérées de courtes grappes ne s'allongeant pas après la floraison. Elles portent 1 à 5 fleurs mesurant au plus 5  à   6 mm, bleuâtres, blanchâtres ou rougeâtres. Les sépales latéraux pétaloïdes, appelés ailes, sont munies d'une large bande verdâtre renfermant 3 nervures peu nettes[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polygala rupestris est un petit arbrisseau possédant des tiges ligneuses à la base. Elles sont ramifiées, plus ou moins imbriquées ou décombantes, très glabres et mesurent 6  à   20 cm. Les feuilles épaisses, ovales, glabres, mesurent 10  à   15 mm. À l'aisselle des feuilles supérieures de la tige sont insérées de courtes grappes ne s'allongeant pas après la floraison. Elles portent 1 à 5 fleurs mesurant au plus 5  à   6 mm, bleuâtres, blanchâtres ou rougeâtres. Les sépales latéraux pétaloïdes, appelés ailes, sont munies d'une large bande verdâtre renfermant 3 nervures peu nettes,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Polygala rupestris Pourr. subsp. rupestris
 Polygala rupestris Pourr. var. rupestris
@@ -574,10 +590,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante a été décrite la première fois par l'abbé Pierre André Pourret en 1788[4]. L'épithète spécifique provient de rūpēs, paroi de rocher[5]. 
-Polygala font-queri est une espèce dédiée par le botaniste espagnol Carlos Pau Español à son collègue Pius Font i Quer, mais ce dernier en fait une sous-espèce Polygala rupestris subsp. font-queri (Pau) Font Quer (1931)[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante a été décrite la première fois par l'abbé Pierre André Pourret en 1788. L'épithète spécifique provient de rūpēs, paroi de rocher. 
+Polygala font-queri est une espèce dédiée par le botaniste espagnol Carlos Pau Español à son collègue Pius Font i Quer, mais ce dernier en fait une sous-espèce Polygala rupestris subsp. font-queri (Pau) Font Quer (1931).
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polygala rupestris se rencontre dans les rochers calcaires, les broussailles[2],[3]. C'est une méditerranéenne occidentale : en Espagne[7], en France[8], en Maroc, en Agérie et en Tunisie[9] ;
-La sous-espèce tunetanum décrite par Murbeck[10] (synonyme de la variété oxyccocoides de Chodat) était considérée comme endémique de la Tunisie[11]. Elle a été incluse dans la sous-espèce rupestris présente également au Maroc et en Algérie[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polygala rupestris se rencontre dans les rochers calcaires, les broussailles,. C'est une méditerranéenne occidentale : en Espagne, en France, en Maroc, en Agérie et en Tunisie ;
+La sous-espèce tunetanum décrite par Murbeck (synonyme de la variété oxyccocoides de Chodat) était considérée comme endémique de la Tunisie. Elle a été incluse dans la sous-espèce rupestris présente également au Maroc et en Algérie.
 </t>
         </is>
       </c>
